--- a/library.xlsx
+++ b/library.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>turnAround.m</t>
-  </si>
-  <si>
-    <t>updatePosn.m</t>
   </si>
   <si>
     <t>runExpSim.m
@@ -79,9 +76,6 @@
   </si>
   <si>
     <t>none</t>
-  </si>
-  <si>
-    <t>script to run simulations</t>
   </si>
   <si>
     <t>script containing parameters for simulations</t>
@@ -104,15 +98,6 @@
 snapshotPosns (position when snapshot was taken)</t>
   </si>
   <si>
-    <t>initParam.m
-genRandomPath.m
-exploratory_journey.slx
-drawSnapshot.m</t>
-  </si>
-  <si>
-    <t>generates random exploratory journey</t>
-  </si>
-  <si>
     <t>inputs: none
 outputs: posnX, posnY, posnZ
 (time series of sample times and positions)</t>
@@ -124,10 +109,6 @@
     <t>Simulink model for return journey simulation</t>
   </si>
   <si>
-    <t>inputs: posnXY (current simulation time, x position, y position)
-outputs: none</t>
-  </si>
-  <si>
     <t>initParam.m
 drawSnapshot.m</t>
   </si>
@@ -145,38 +126,7 @@
     <t>script to run simulations for return journey</t>
   </si>
   <si>
-    <t>initParam.m
-turnAround.m
-return_journey.slx</t>
-  </si>
-  <si>
-    <t>posnX_return (time series for return x position)
-posnY_return (time series for return y position)
-posnZ_return (time series for return z position)
-dirV (normalized direction vector)
-waypointPosns (position when waypoint reached)</t>
-  </si>
-  <si>
-    <t>computes initial normalized direction vector</t>
-  </si>
-  <si>
-    <t>updates the position of the UAV</t>
-  </si>
-  <si>
-    <t>inputs: dirV (normalized direction vector)
-outputs: posnXYZ (current simulaiton time, x y z position)</t>
-  </si>
-  <si>
-    <t>posnX_return (time series for return x position)
-posnY_return (time series for return y position)
-posnZ_return (time series for return z position)</t>
-  </si>
-  <si>
     <t>convertHomography.m</t>
-  </si>
-  <si>
-    <t>converts from 4 point homography parameterization
-(output of NN) to matrix homography</t>
   </si>
   <si>
     <t>inputs: H4point (4x2 matrix, 4 point parameterization)
@@ -193,10 +143,6 @@
   </si>
   <si>
     <t>computes the control vector</t>
-  </si>
-  <si>
-    <t>inputs: H4point (4x2 matrix, 4 point parameterization)
-outputs: dirV (normalized direction vector)</t>
   </si>
   <si>
     <t>inputs: H4point (4x2 matrix, 4 point parameterization)
@@ -204,20 +150,225 @@
 prs (4x2 matrix of feature points from reference image)</t>
   </si>
   <si>
+    <t>exploratory_journey_path.slx</t>
+  </si>
+  <si>
+    <t>genRandomDirs.m</t>
+  </si>
+  <si>
+    <t>neuralNetwork.m</t>
+  </si>
+  <si>
+    <t>nnToH4pnt.m</t>
+  </si>
+  <si>
+    <t>stopSim.m</t>
+  </si>
+  <si>
+    <t>turnAround_path.m</t>
+  </si>
+  <si>
+    <t>updateExpPosn.m</t>
+  </si>
+  <si>
+    <t>updateImgs.m</t>
+  </si>
+  <si>
+    <t>updateRetPosn.m</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posnX,Y,Z_ret</t>
+  </si>
+  <si>
+    <t>posnX_ret (time series for return x position)
+posnY_ret (time series for return y position)
+posnZ_ret (time series for return z position)</t>
+  </si>
+  <si>
+    <t>updates currCam and currSnap images</t>
+  </si>
+  <si>
+    <t>inputs: dirV (4x1 normalized direction vector)
+outputs: posnXYZ (4x1 vector, time x y z position)</t>
+  </si>
+  <si>
+    <t>inputs: posnXYZ (4x1 vector, time x y z position)
+outputs: none</t>
+  </si>
+  <si>
+    <t>pixOffset (pixel offset between currCam and currSnap)
+currCam (current camera view)
+currSnap (current snapshot)
+snapIdx (index of current snapshot)
+snapshots (snapshot storage)
+waypointPosns (position when snapshot switched)</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posnX,Y,Z_exp</t>
+  </si>
+  <si>
+    <t>posnX_exp (time series for exploratory x position)
+posnY_exp (time series for exploratory y position)
+posnZ_exp (time series for exploratory z position)</t>
+  </si>
+  <si>
+    <t>computes initial normalized direction vector
+from path coordinates
+used with genRandomPath and exploratory_journey_path</t>
+  </si>
+  <si>
     <t>inputs: posnX, posnY, posnZ
 (time series for exploratory journey)
-outputs: dirV (normalized direction vector)</t>
-  </si>
-  <si>
-    <t>convertHomography.m
+outputs: dirV (3x1 normalized direction vector)</t>
+  </si>
+  <si>
+    <t>computes initial normalized direction vector
+from previous normalized direction vector
+used with genRandomDirs and exploratory_journey</t>
+  </si>
+  <si>
+    <t>inputs: dir_prev (4x1 normalized direction vector)
+outputs: dirV (4x1 normalized direction vector)</t>
+  </si>
+  <si>
+    <t>inputs: ~ (MATLAB filler input)
+outputs: boolean 0/false, 1/true</t>
+  </si>
+  <si>
+    <t>snapIdx</t>
+  </si>
+  <si>
+    <t>determine whether or not to stop return simulation
+(prevents index out of bounds error for snapIdx)</t>
+  </si>
+  <si>
+    <t>script to run simulations and save data for later analysis</t>
+  </si>
+  <si>
+    <t>initParam.m
+turnAround.m
+updateRetPosn.m
+drawRetPath.m
+return_journey.slx</t>
+  </si>
+  <si>
+    <t>posnX_exp (time series for exploratory x position)
+posnY_exp (time series for exploratory y position)
+posnZ_exp (time series for exploratory z position)
+snapshots (snapshot storage)
+posnX_ret (time series for return x position)
+posnY_ret (time series for return y position)
+posnZ_ret (time series for return z position)
+currCam (current camera view)
+currSnap (current snapshot)
+snapIdx (index of current snapshot)
+pixOffset (pixel offset between currCam and currSnap)
+waypointPosns (position when waypoint reached)</t>
+  </si>
+  <si>
+    <t>initParam.m
+genRandomDirs.m
+(genRandomPath.m)
+exploratory_journey.slx
+(exploratory_journey_path.slx)
+drawSnapshot.m</t>
+  </si>
+  <si>
+    <t>posnX_exp (time series for exploratory x position)
+posnY_exp (time series for exploratory y position)
+posnZ_exp (time series for exploratory z position)
+img (environment)
+snapshots (snapshot storage)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
+    <t>neuralNetwork.m
+controlVec.m
+MATLAB function (dirVels)
+updateRetPosn.m
+drawRetPath.m
+stopSim.m</t>
+  </si>
+  <si>
+    <t>updateExpPosn.m
+drawExpPath.m</t>
+  </si>
+  <si>
+    <t>converts neural network output to H4point</t>
+  </si>
+  <si>
+    <t>homography estimation using neural network</t>
+  </si>
+  <si>
+    <t>inputs: ~ (MATLAB filler input)
+outputs: nnOut (8x1 vector, rearrangement of H4point)</t>
+  </si>
+  <si>
+    <t>inputs: nnOut (8x1 vector, rearrangement of H4point)
+outputs: H4point (4x2 matrix, 4 point parameterization)</t>
+  </si>
+  <si>
+    <t>currCam (current camera view)
+currSnap (current snapshot)</t>
+  </si>
+  <si>
+    <t>generates random exploratory journey path
+used with exploratory_journey_path.slx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Simulink model for exploratory journey simulation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this model (along with genRandomPath.m and
+turnAround_path.m) is outdated; return journey
+navigates using vectors, exploratory journey should as
+well; see exploratory_journey.slx</t>
+    </r>
+  </si>
+  <si>
+    <t>generates random exploratory journey directions</t>
+  </si>
+  <si>
+    <t>inputs: none
+outputs: dirX, dirY, dirZ
+(time series of sample times and unit directions)</t>
+  </si>
+  <si>
+    <t>initParam.m
+updateImgs.m</t>
+  </si>
+  <si>
+    <t>converts from 4 point homography parameterization
+(rearranged output of NN) to matrix homography</t>
+  </si>
+  <si>
+    <t>inputs: nnOut (8x1 vector, rearrangement of H4point)
+outputs: dirV (3x1 normalized direction vector)</t>
+  </si>
+  <si>
+    <t>nnToH4pnt.m
+convertHomography.m
 featurePoints.m</t>
+  </si>
+  <si>
+    <t>pixOffset (pixel offset between currCam and currSnap)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +384,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -272,6 +437,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,22 +727,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -585,288 +759,426 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>41</v>
+      <c r="A3" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="E24" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/library.xlsx
+++ b/library.xlsx
@@ -177,14 +177,6 @@
     <t>updateRetPosn.m</t>
   </si>
   <si>
-    <t>updates the position of the UAV, saves in posnX,Y,Z_ret</t>
-  </si>
-  <si>
-    <t>posnX_ret (time series for return x position)
-posnY_ret (time series for return y position)
-posnZ_ret (time series for return z position)</t>
-  </si>
-  <si>
     <t>updates currCam and currSnap images</t>
   </si>
   <si>
@@ -204,14 +196,6 @@
 waypointPosns (position when snapshot switched)</t>
   </si>
   <si>
-    <t>updates the position of the UAV, saves in posnX,Y,Z_exp</t>
-  </si>
-  <si>
-    <t>posnX_exp (time series for exploratory x position)
-posnY_exp (time series for exploratory y position)
-posnZ_exp (time series for exploratory z position)</t>
-  </si>
-  <si>
     <t>computes initial normalized direction vector
 from path coordinates
 used with genRandomPath and exploratory_journey_path</t>
@@ -233,9 +217,6 @@
   <si>
     <t>inputs: ~ (MATLAB filler input)
 outputs: boolean 0/false, 1/true</t>
-  </si>
-  <si>
-    <t>snapIdx</t>
   </si>
   <si>
     <t>determine whether or not to stop return simulation
@@ -250,20 +231,6 @@
 updateRetPosn.m
 drawRetPath.m
 return_journey.slx</t>
-  </si>
-  <si>
-    <t>posnX_exp (time series for exploratory x position)
-posnY_exp (time series for exploratory y position)
-posnZ_exp (time series for exploratory z position)
-snapshots (snapshot storage)
-posnX_ret (time series for return x position)
-posnY_ret (time series for return y position)
-posnZ_ret (time series for return z position)
-currCam (current camera view)
-currSnap (current snapshot)
-snapIdx (index of current snapshot)
-pixOffset (pixel offset between currCam and currSnap)
-waypointPosns (position when waypoint reached)</t>
   </si>
   <si>
     <t>initParam.m
@@ -272,14 +239,6 @@
 exploratory_journey.slx
 (exploratory_journey_path.slx)
 drawSnapshot.m</t>
-  </si>
-  <si>
-    <t>posnX_exp (time series for exploratory x position)
-posnY_exp (time series for exploratory y position)
-posnZ_exp (time series for exploratory z position)
-img (environment)
-snapshots (snapshot storage)
-snapshotPosns (position when snapshot was taken)</t>
   </si>
   <si>
     <t>neuralNetwork.m
@@ -339,11 +298,6 @@
     <t>generates random exploratory journey directions</t>
   </si>
   <si>
-    <t>inputs: none
-outputs: dirX, dirY, dirZ
-(time series of sample times and unit directions)</t>
-  </si>
-  <si>
     <t>initParam.m
 updateImgs.m</t>
   </si>
@@ -361,7 +315,45 @@
 featurePoints.m</t>
   </si>
   <si>
-    <t>pixOffset (pixel offset between currCam and currSnap)</t>
+    <t>dirV_ret (time series for return direction vectors)
+pixOffset (pixel offset between currCam and currSnap)</t>
+  </si>
+  <si>
+    <t>snapIdx (index of current snapshot)</t>
+  </si>
+  <si>
+    <t>inputs: none
+outputs: dirV_exp
+(time series of sample times and unit directions)</t>
+  </si>
+  <si>
+    <t>posn_exp (time series for exploratory positions)
+img (environment)
+snapshots (snapshot storage)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
+    <t>posn_exp (time series for exploratory positions)</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_exp</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_ret</t>
+  </si>
+  <si>
+    <t>posn_ret (time series for return positions)</t>
+  </si>
+  <si>
+    <t>posn_exp (time series for exploratory positions)
+snapshots (snapshot storage)
+dirV_ret (time series for return direction vectors)
+posn_ret (time series for return positions)
+currCam (current camera view)
+currSnap (current snapshot)
+snapIdx (index of current snapshot)
+pixOffset (pixel offset between currCam and currSnap)
+waypointPosns (position when waypoint reached)</t>
   </si>
 </sst>
 </file>
@@ -419,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -446,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -738,11 +733,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -770,13 +765,13 @@
         <v>35</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +779,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>31</v>
@@ -804,7 +799,7 @@
         <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>25</v>
@@ -821,10 +816,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
@@ -838,7 +833,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
@@ -858,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -869,7 +864,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -903,10 +898,10 @@
         <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -920,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
@@ -954,14 +949,14 @@
         <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -969,10 +964,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
@@ -982,7 +977,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -992,14 +987,14 @@
         <v>16</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1009,14 +1004,14 @@
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1026,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1037,7 +1032,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
@@ -1054,16 +1049,16 @@
         <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1071,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -1088,10 +1083,10 @@
         <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
@@ -1100,21 +1095,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>53</v>
+      <c r="E22" s="11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1122,33 +1117,33 @@
         <v>44</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>47</v>
+      <c r="E24" s="11" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/library.xlsx
+++ b/library.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulation Framework" sheetId="1" r:id="rId1"/>
+    <sheet name="Neural Network" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>File Name</t>
   </si>
@@ -93,11 +94,6 @@
 will be written to adhere to better coding practices</t>
   </si>
   <si>
-    <t>img (environment)
-snapshots (snapshot storage)
-snapshotPosns (position when snapshot was taken)</t>
-  </si>
-  <si>
     <t>inputs: none
 outputs: posnX, posnY, posnZ
 (time series of sample times and positions)</t>
@@ -186,14 +182,6 @@
   <si>
     <t>inputs: posnXYZ (4x1 vector, time x y z position)
 outputs: none</t>
-  </si>
-  <si>
-    <t>pixOffset (pixel offset between currCam and currSnap)
-currCam (current camera view)
-currSnap (current snapshot)
-snapIdx (index of current snapshot)
-snapshots (snapshot storage)
-waypointPosns (position when snapshot switched)</t>
   </si>
   <si>
     <t>computes initial normalized direction vector
@@ -327,26 +315,33 @@
 (time series of sample times and unit directions)</t>
   </si>
   <si>
+    <t>posn_exp (time series for exploratory positions)</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_exp</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_ret</t>
+  </si>
+  <si>
+    <t>posn_ret (time series for return positions)</t>
+  </si>
+  <si>
+    <t>neural_network_script.m</t>
+  </si>
+  <si>
+    <t>script for creating, training, and testing neural network</t>
+  </si>
+  <si>
     <t>posn_exp (time series for exploratory positions)
 img (environment)
-snapshots (snapshot storage)
+snapshotsRGB (color snapshot storage)
+snapshotsG (grayscale snapshot storage)
 snapshotPosns (position when snapshot was taken)</t>
   </si>
   <si>
-    <t>posn_exp (time series for exploratory positions)</t>
-  </si>
-  <si>
-    <t>updates the position of the UAV, saves in posn_exp</t>
-  </si>
-  <si>
-    <t>updates the position of the UAV, saves in posn_ret</t>
-  </si>
-  <si>
-    <t>posn_ret (time series for return positions)</t>
-  </si>
-  <si>
     <t>posn_exp (time series for exploratory positions)
-snapshots (snapshot storage)
+snapshotsG (gray snapshot storage)
 dirV_ret (time series for return direction vectors)
 posn_ret (time series for return positions)
 currCam (current camera view)
@@ -354,6 +349,20 @@
 snapIdx (index of current snapshot)
 pixOffset (pixel offset between currCam and currSnap)
 waypointPosns (position when waypoint reached)</t>
+  </si>
+  <si>
+    <t>img (environment)
+snapshotsRGB (color snapshot storage)
+snapshotsG (gray snapshot storage)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
+    <t>pixOffset (pixel offset between currCam and currSnap)
+currCam (current camera view)
+currSnap (current snapshot)
+snapIdx (index of current snapshot)
+snapshotsG (gray snapshot storage)
+waypointPosns (position when snapshot switched)</t>
   </si>
 </sst>
 </file>
@@ -722,13 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,33 +768,33 @@
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -796,13 +805,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -813,33 +822,33 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -847,13 +856,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -861,10 +870,10 @@
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -878,13 +887,13 @@
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -895,13 +904,13 @@
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
@@ -915,10 +924,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
@@ -944,50 +953,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -995,92 +1004,92 @@
     </row>
     <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D19" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>50</v>
@@ -1089,52 +1098,52 @@
         <v>51</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>47</v>
@@ -1142,16 +1151,26 @@
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E24" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1167,12 +1186,19 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1180,4 +1206,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/library.xlsx
+++ b/library.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Framework" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
   <si>
     <t>File Name</t>
   </si>
@@ -327,12 +327,6 @@
     <t>posn_ret (time series for return positions)</t>
   </si>
   <si>
-    <t>neural_network_script.m</t>
-  </si>
-  <si>
-    <t>script for creating, training, and testing neural network</t>
-  </si>
-  <si>
     <t>posn_exp (time series for exploratory positions)
 img (environment)
 snapshotsRGB (color snapshot storage)
@@ -340,8 +334,15 @@
 snapshotPosns (position when snapshot was taken)</t>
   </si>
   <si>
+    <t>img (environment)
+snapshotsRGB (color snapshot storage)
+snapshotsG (gray snapshot storage)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
     <t>posn_exp (time series for exploratory positions)
 snapshotsG (gray snapshot storage)
+img (environment)
 dirV_ret (time series for return direction vectors)
 posn_ret (time series for return positions)
 currCam (current camera view)
@@ -351,17 +352,12 @@
 waypointPosns (position when waypoint reached)</t>
   </si>
   <si>
-    <t>img (environment)
-snapshotsRGB (color snapshot storage)
-snapshotsG (gray snapshot storage)
-snapshotPosns (position when snapshot was taken)</t>
-  </si>
-  <si>
     <t>pixOffset (pixel offset between currCam and currSnap)
 currCam (current camera view)
 currSnap (current snapshot)
 snapIdx (index of current snapshot)
 snapshotsG (gray snapshot storage)
+img (environment)
 waypointPosns (position when snapshot switched)</t>
   </si>
 </sst>
@@ -731,13 +727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -953,50 +949,50 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>78</v>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
+      <c r="A14" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -1004,173 +1000,163 @@
     </row>
     <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>81</v>
+        <v>15</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="11" t="s">
+      <c r="E22" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="E24" s="11" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1186,19 +1172,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1212,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/library.xlsx
+++ b/library.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Simulation Framework" sheetId="1" r:id="rId1"/>
-    <sheet name="Neural Network" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>File Name</t>
   </si>
@@ -49,9 +48,6 @@
   </si>
   <si>
     <t>exploratory_journey.slx</t>
-  </si>
-  <si>
-    <t>genRandomPath.m</t>
   </si>
   <si>
     <t>initParam.m</t>
@@ -141,27 +137,13 @@
     <t>computes the control vector</t>
   </si>
   <si>
-    <t>inputs: H4point (4x2 matrix, 4 point parameterization)
-outputs: pcs (4x2 matrix of feature points from camera)
-prs (4x2 matrix of feature points from reference image)</t>
-  </si>
-  <si>
-    <t>exploratory_journey_path.slx</t>
-  </si>
-  <si>
     <t>genRandomDirs.m</t>
   </si>
   <si>
-    <t>neuralNetwork.m</t>
-  </si>
-  <si>
     <t>nnToH4pnt.m</t>
   </si>
   <si>
     <t>stopSim.m</t>
-  </si>
-  <si>
-    <t>turnAround_path.m</t>
   </si>
   <si>
     <t>updateExpPosn.m</t>
@@ -182,11 +164,6 @@
   <si>
     <t>inputs: posnXYZ (4x1 vector, time x y z position)
 outputs: none</t>
-  </si>
-  <si>
-    <t>computes initial normalized direction vector
-from path coordinates
-used with genRandomPath and exploratory_journey_path</t>
   </si>
   <si>
     <t>inputs: posnX, posnY, posnZ
@@ -194,21 +171,8 @@
 outputs: dirV (3x1 normalized direction vector)</t>
   </si>
   <si>
-    <t>computes initial normalized direction vector
-from previous normalized direction vector
-used with genRandomDirs and exploratory_journey</t>
-  </si>
-  <si>
     <t>inputs: dir_prev (4x1 normalized direction vector)
 outputs: dirV (4x1 normalized direction vector)</t>
-  </si>
-  <si>
-    <t>inputs: ~ (MATLAB filler input)
-outputs: boolean 0/false, 1/true</t>
-  </si>
-  <si>
-    <t>determine whether or not to stop return simulation
-(prevents index out of bounds error for snapIdx)</t>
   </si>
   <si>
     <t>script to run simulations and save data for later analysis</t>
@@ -221,30 +185,7 @@
 return_journey.slx</t>
   </si>
   <si>
-    <t>initParam.m
-genRandomDirs.m
-(genRandomPath.m)
-exploratory_journey.slx
-(exploratory_journey_path.slx)
-drawSnapshot.m</t>
-  </si>
-  <si>
-    <t>neuralNetwork.m
-controlVec.m
-MATLAB function (dirVels)
-updateRetPosn.m
-drawRetPath.m
-stopSim.m</t>
-  </si>
-  <si>
-    <t>updateExpPosn.m
-drawExpPath.m</t>
-  </si>
-  <si>
     <t>converts neural network output to H4point</t>
-  </si>
-  <si>
-    <t>homography estimation using neural network</t>
   </si>
   <si>
     <t>inputs: ~ (MATLAB filler input)
@@ -259,8 +200,81 @@
 currSnap (current snapshot)</t>
   </si>
   <si>
-    <t>generates random exploratory journey path
-used with exploratory_journey_path.slx</t>
+    <t>generates random exploratory journey directions</t>
+  </si>
+  <si>
+    <t>initParam.m
+updateImgs.m</t>
+  </si>
+  <si>
+    <t>nnToH4pnt.m
+convertHomography.m
+featurePoints.m</t>
+  </si>
+  <si>
+    <t>inputs: none
+outputs: dirV_exp
+(time series of sample times and unit directions)</t>
+  </si>
+  <si>
+    <t>posn_exp (time series for exploratory positions)</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_exp</t>
+  </si>
+  <si>
+    <t>updates the position of the UAV, saves in posn_ret</t>
+  </si>
+  <si>
+    <t>img (environment)
+snapshotsRGB (color snapshot storage)
+snapshotsG (gray snapshot storage)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
+    <t>dirV (current direction vector being followed)
+pixOffset (pixel offset between currCam and currSnap)</t>
+  </si>
+  <si>
+    <t>inputs: t (current simulation time)
+outputs: dir (3x1 normalized direction vector)</t>
+  </si>
+  <si>
+    <t>converts from 4 point homography parameterization
+to matrix homography</t>
+  </si>
+  <si>
+    <t>dataAnalysis.m</t>
+  </si>
+  <si>
+    <t>dataAnalysisComputation.m</t>
+  </si>
+  <si>
+    <t>script for getting data from experiment .mat files</t>
+  </si>
+  <si>
+    <t>script for computations for data analysis</t>
+  </si>
+  <si>
+    <t>evalMatches.m</t>
+  </si>
+  <si>
+    <t>evaluates matches between two snapshots</t>
+  </si>
+  <si>
+    <t>inputs: snapIdx1, snapIdx2 (indices of snapshots to be evaluated)
+outputs: flag (boolean indicating possible optimization)</t>
+  </si>
+  <si>
+    <t>py.features.eval_matches</t>
+  </si>
+  <si>
+    <t>imgStr (name of environment image)
+snapshotPosns (position when snapshot was taken)</t>
+  </si>
+  <si>
+    <t>exploratory_journey_path.slx
+OUTDATED AND NOT USED</t>
   </si>
   <si>
     <r>
@@ -277,74 +291,203 @@
         <scheme val="minor"/>
       </rPr>
       <t>this model (along with genRandomPath.m and
-turnAround_path.m) is outdated; return journey
-navigates using vectors, exploratory journey should as
-well; see exploratory_journey.slx</t>
+turnAround_path.m) is outdated; see exploratory_journey.slx</t>
     </r>
   </si>
   <si>
-    <t>generates random exploratory journey directions</t>
+    <t>neuralNetwork.m
+controlVec.m
+MATLAB function (dirVecs)
+updateRetPosn.m
+drawRetPath.m
+stopSim.m</t>
+  </si>
+  <si>
+    <t>return_journey_nn.slx
+OUTDATED AND NOT USED</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Simulink model for return journey simulation
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this model (along with neuralNetwork.m) is outdated; see return_journey.slx</t>
+    </r>
+  </si>
+  <si>
+    <t>MATLAB function (dirVecs)
+updateExpPosn.m
+drawExpPath.m</t>
+  </si>
+  <si>
+    <t>controlVec.m
+MATLAB function (dirVecs)
+updateRetPosn.m
+drawRetPath.m
+stopSim.m</t>
+  </si>
+  <si>
+    <t>inputs: H4point (4x2 matrix, 4 point parameterization)
+outputs: prs (4x2 matrix of feature points from reference image)
+pcs (4x2 matrix of feature points from camera)</t>
+  </si>
+  <si>
+    <t>features.py</t>
+  </si>
+  <si>
+    <t>Python module for image processing tasks</t>
+  </si>
+  <si>
+    <t>see functions feature_points, eval_matches</t>
+  </si>
+  <si>
+    <t>eval_matches (features.py)</t>
+  </si>
+  <si>
+    <t>evaluates the matches between two snapshots
+for path optimization</t>
+  </si>
+  <si>
+    <t>feature_points (features.py)</t>
+  </si>
+  <si>
+    <t>computes matched feature points of two images</t>
+  </si>
+  <si>
+    <t>inputs: imStr (name of environment image)
+x1, y1 (coordinates of upper left corner of first snap)
+x2, y2 (coordinates of upper left corner of second snap)
+snapDim (dimensons of snapshot)
+outputs: match_eval (1x4 tuple of distances)</t>
+  </si>
+  <si>
+    <t>inputs: imStr (name of environment image)
+x1, y1 (coordinates of upper left corner of first snap)
+x2, y2 (coordinates of upper left corner of second snap)
+snapDim (dimensions of snapshot)
+outputs: pnts (1x2 tuple of feature points, [pnts1 pnts2], each containing four point coordinates)</t>
+  </si>
+  <si>
+    <t>genRandomPath.m
+OUTDATED AND NOT USED</t>
+  </si>
+  <si>
+    <t>getFeatures.m</t>
+  </si>
+  <si>
+    <t>gets feature points and arranges to vector form of H4point
+simulates neural network output</t>
+  </si>
+  <si>
+    <t>inputs: none
+outputs: nnOut (8x1 vector, rearrangement of H4point)</t>
   </si>
   <si>
     <t>initParam.m
-updateImgs.m</t>
-  </si>
-  <si>
-    <t>converts from 4 point homography parameterization
-(rearranged output of NN) to matrix homography</t>
-  </si>
-  <si>
-    <t>inputs: nnOut (8x1 vector, rearrangement of H4point)
-outputs: dirV (3x1 normalized direction vector)</t>
-  </si>
-  <si>
-    <t>nnToH4pnt.m
-convertHomography.m
-featurePoints.m</t>
-  </si>
-  <si>
-    <t>dirV_ret (time series for return direction vectors)
-pixOffset (pixel offset between currCam and currSnap)</t>
-  </si>
-  <si>
-    <t>snapIdx (index of current snapshot)</t>
-  </si>
-  <si>
-    <t>inputs: none
-outputs: dirV_exp
-(time series of sample times and unit directions)</t>
-  </si>
-  <si>
-    <t>posn_exp (time series for exploratory positions)</t>
-  </si>
-  <si>
-    <t>updates the position of the UAV, saves in posn_exp</t>
-  </si>
-  <si>
-    <t>updates the position of the UAV, saves in posn_ret</t>
-  </si>
-  <si>
-    <t>posn_ret (time series for return positions)</t>
+py.features.feature_points</t>
+  </si>
+  <si>
+    <t>imgStr (name of environment image)
+currCamPosn (xy position of current camera image)
+currSnapPosn (xy position of current snapshot)</t>
+  </si>
+  <si>
+    <t>neuralNetwork.m
+OUTDATED AND NOT USED</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">homography estimation using neural network
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>code is not completely written; function would have passed images into trained neural network for homography estimation; see getFeatures.m</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">generates random exploratory journey path
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this function is outdated; see genRandomDirs.m</t>
+    </r>
+  </si>
+  <si>
+    <t>noPathOptimization.m</t>
+  </si>
+  <si>
+    <t>script called when path is not to be optimized
+initializes optimizedFlag and idxCut</t>
+  </si>
+  <si>
+    <t>optimizedFlag (boolean indicating optimization)
+idxCut (snapshot to which path is optimized)</t>
+  </si>
+  <si>
+    <t>pathOptimization.m</t>
+  </si>
+  <si>
+    <t>script called when path is to be optimized
+optimizes path</t>
+  </si>
+  <si>
+    <t>initParam.m
+evalMatches.m</t>
+  </si>
+  <si>
+    <t>snapshotsG (grayscale snapshot storage)
+optimizedFlag (boolean indicating optimization)
+idxCut (snapshot to which path is optimized)</t>
   </si>
   <si>
     <t>posn_exp (time series for exploratory positions)
+imgStr (name of environment image)
 img (environment)
 snapshotsRGB (color snapshot storage)
 snapshotsG (grayscale snapshot storage)
 snapshotPosns (position when snapshot was taken)</t>
   </si>
   <si>
-    <t>img (environment)
-snapshotsRGB (color snapshot storage)
-snapshotsG (gray snapshot storage)
-snapshotPosns (position when snapshot was taken)</t>
+    <t>initParam.m
+genRandomDirs.m
+exploratory_journey.slx
+drawSnapshot.m</t>
   </si>
   <si>
     <t>posn_exp (time series for exploratory positions)
 snapshotsG (gray snapshot storage)
+snapshotPosns (position when snapshot was taken)
 img (environment)
+imgStr (name of environment image)
 dirV_ret (time series for return direction vectors)
 posn_ret (time series for return positions)
+dirV (current direction vector to be followed)
 currCam (current camera view)
 currSnap (current snapshot)
 snapIdx (index of current snapshot)
@@ -352,13 +495,113 @@
 waypointPosns (position when waypoint reached)</t>
   </si>
   <si>
+    <t>determine whether or not to stop return simulation
+(prevents index out of bounds error for snapIdx,
+terminates simulation when UAV reaches home)</t>
+  </si>
+  <si>
+    <t>inputs: ~ (MATLAB filler input)
+outputs: bool (boolean 0/false, 1/true)</t>
+  </si>
+  <si>
+    <t>snapIdx (index of current snapshot)
+posn_ret (time series for return positions)</t>
+  </si>
+  <si>
+    <t>computes initial normalized direction vector
+from previous normalized direction vector</t>
+  </si>
+  <si>
+    <t>turnAround_path.m
+OUTDATED AND NOT USED</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">computes initial normalized direction vector
+from path coordinates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>outdated; see turnAround.m</t>
+    </r>
+  </si>
+  <si>
+    <t>updateCam.m</t>
+  </si>
+  <si>
+    <t>updateImgsNoPathOp.m</t>
+  </si>
+  <si>
+    <t>updatImgsPathOp.m</t>
+  </si>
+  <si>
+    <t>updateSnap.m</t>
+  </si>
+  <si>
+    <t>usePythonModules.m</t>
+  </si>
+  <si>
+    <t>updates current camera view</t>
+  </si>
+  <si>
+    <t>currCam (current camera view)
+currCamPosn (xy position of current camera image)
+img (environment)
+waypointPosns (position when waypoint  reached)</t>
+  </si>
+  <si>
+    <t>optimizedFlag (boolean indicating optimization)</t>
+  </si>
+  <si>
+    <t>initParam.m
+updateCam.m
+updateImgsPathOp.m
+updateImgsNoPathOp.m</t>
+  </si>
+  <si>
+    <t>updates currSnap when path is not optimized</t>
+  </si>
+  <si>
+    <t>pixOffset (pixel offset between currCam and currSnap)</t>
+  </si>
+  <si>
+    <t>initParam.m
+updateSnap.m</t>
+  </si>
+  <si>
+    <t>updates currSnap when path is optimized</t>
+  </si>
+  <si>
     <t>pixOffset (pixel offset between currCam and currSnap)
-currCam (current camera view)
+snapIdx (index of current snapshot)
+idxCut (snapshot to which path is optimized)</t>
+  </si>
+  <si>
+    <t>dirV_ret (time series for return direction vectors)
+posn_ret (time series for return positions)</t>
+  </si>
+  <si>
+    <t>updates current snapshot</t>
+  </si>
+  <si>
+    <t>pixOffset (pixel offset between currCam and currSnap)
 currSnap (current snapshot)
+currSnapPosn (xy position of current snapshot)
 snapIdx (index of current snapshot)
-snapshotsG (gray snapshot storage)
-img (environment)
-waypointPosns (position when snapshot switched)</t>
+snapshotsG (grayscale snapshot storage)
+snapshotPosns (position when snapshot was taken)
+waypointPosns (position when waypoint reached)</t>
+  </si>
+  <si>
+    <t>script to call user-defined Python modules</t>
   </si>
 </sst>
 </file>
@@ -399,7 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -438,13 +681,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -759,468 +1006,687 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>69</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>48</v>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5" t="s">
-        <v>20</v>
+      <c r="D32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>